--- a/biology/Zoologie/Hongkongia/Hongkongia.xlsx
+++ b/biology/Zoologie/Hongkongia/Hongkongia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hongkongia est un genre d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hongkongia est un genre d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Afrique de l'Ouest[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie et en Afrique de l'Ouest.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 21/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 21/02/2024) :
 Hongkongia caeca Deeleman-Reinhold, 2001
 Hongkongia incincta (Simon, 1907)
 Hongkongia liutang Lin &amp; Li, 2023
@@ -579,7 +595,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Song et Zhu en 1998 dans les Gnaphosidae.
 </t>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Song &amp; Zhu, 1998 : « A new genus and two new species of Hong Kong spiders (Gnaphosidae, Corinnidae). » Journal of Hebei Normal University, Natural science edition, vol. 22, p. 104-108.</t>
         </is>
